--- a/account/management/upload_file/panda_customer_catalog.xlsx
+++ b/account/management/upload_file/panda_customer_catalog.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373">
   <si>
     <t>供应商名称</t>
   </si>
@@ -48,16 +48,46 @@
     </r>
   </si>
   <si>
+    <t>生鲜冷冻</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 990醋                                                         </t>
+  </si>
+  <si>
+    <t>粮油副食</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 阿米哥电子烟                                                  </t>
+  </si>
+  <si>
     <t>家用电器</t>
   </si>
   <si>
+    <t xml:space="preserve"> 艾咪艾咪                                                      </t>
+  </si>
+  <si>
+    <t>母婴专区</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 爱肤尔丝绸                                                    </t>
+  </si>
+  <si>
+    <t>家居百货</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 爱华中兴纸业                                                  </t>
+  </si>
+  <si>
+    <r>
+      <t>母婴专区</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 990</t>
+      <t>_</t>
     </r>
     <r>
       <rPr>
@@ -65,7 +95,24 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>醋</t>
+      <t>纸质品</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 爱上草原                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 安杰运达                                                      </t>
+  </si>
+  <si>
+    <t>家居清洁</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 昂生养神                                                      </t>
+  </si>
+  <si>
+    <r>
+      <t>美妆个护</t>
     </r>
     <r>
       <rPr>
@@ -73,11 +120,1294 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">                                                         </t>
+      <t>_</t>
     </r>
-  </si>
-  <si>
-    <t>电脑办公</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>早餐冲调</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 奥丽芙                                                        </t>
+  </si>
+  <si>
+    <t>美妆个护</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 奥特路光学                                                    </t>
+  </si>
+  <si>
+    <r>
+      <t>服装配饰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>手机数码</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 芭蓓缇（北京）化妆品有限公司                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 白马山                                                        </t>
+  </si>
+  <si>
+    <t>酒水饮料</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 百家商贸                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 百龄达                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 佰百客                                                        </t>
+  </si>
+  <si>
+    <r>
+      <t>美妆个护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>休闲食品</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 佰健大药房                                                    </t>
+  </si>
+  <si>
+    <t>营养保健</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 佰能护肤                                                      </t>
+  </si>
+  <si>
+    <r>
+      <t>美妆个护</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>营养保健</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 邦康                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 保华家纺厂                                                    </t>
+  </si>
+  <si>
+    <t>服装配饰</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 保税仓                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京爱德美康                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京澳杰斯罗                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京澳新宏诚商贸有限公司                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京百利勤国际贸易有限公司                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京畅氢源饮水                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京朝霞鸿源商贸有限责任公司                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京船桥忆商贸                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京丹参牙膏                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京方圆平安食品开发有限公司                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京菲悦生物科技有限公司                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京丰全优品商贸有限公司                                      </t>
+  </si>
+  <si>
+    <t>休闲食品</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京海聚源升                                                  </t>
+  </si>
+  <si>
+    <r>
+      <t>礼券专区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>粮油副食</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京合百诺丽                                                  </t>
+  </si>
+  <si>
+    <r>
+      <t>酒水饮料</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>美妆个护</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京和益源生物技术有限公司                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京恒合信                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京宏润汇鑫                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京华乐博尔                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京慧恩                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京佳梦寝室用品有限公司                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京嘉裕森                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京捷思基业                                                  </t>
+  </si>
+  <si>
+    <r>
+      <t>家居清洁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>母婴专区</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京金蓝鲨生物医药科技有限公司                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京金明振华                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京金源鹏                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京京酿调味品                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京京育上品                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京聚贤添翼文化传播有限公司                                  </t>
+  </si>
+  <si>
+    <t>艺术品</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京朗润一铭国际贸易有限公司                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京乐杺坊                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京联合启源科技有限公司                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京迈时杰商贸有限公司                                        </t>
+  </si>
+  <si>
+    <t>纸质品</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京美乐雅                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京那拉提果业                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京欧莱美施                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京瑞联汇康                                                  </t>
+  </si>
+  <si>
+    <t>早餐冲调</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京三露泉                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京森源华诚科技发展有限公司                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京食珍园农业                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京世纪有机汇生态健康                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京市繁荣永恒科贸公司                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京市精物堂食品有限公司                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京市老才臣食品                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京泗玥石美容有限公司                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京松大                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京糖护科技有限公司                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京万民船铭                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京维婴致宝孕婴童用品商店                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京香格瑞来商贸有限公司                                      </t>
+  </si>
+  <si>
+    <r>
+      <t>服装配饰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家居百货</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京新主张食品科技有限公司                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京鑫洲隆源                                                  </t>
+  </si>
+  <si>
+    <r>
+      <t>礼券专区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生鲜冷冻</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京信亦达隆                                                  </t>
+  </si>
+  <si>
+    <r>
+      <t>家居百货</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家用电器</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京轩奥国际                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京颜如科技                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京亿美华烨贸易有限公司                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京益通                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京雨莲露工艺礼品                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京中科江健生物                                              </t>
+  </si>
+  <si>
+    <t>手机数码</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京中斯                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京中兴顺通                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 北京尊爵生物                                                  </t>
+  </si>
+  <si>
+    <t>宠物</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 倍护婴                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 比菲雅                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 波尼亚食品                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 伯林护理                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 铂盈天德                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 博晶                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 博善尔                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 茶乾坤食品                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 常熟市艾嘉针纺制品                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 晨龙食品                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 成都客卤滋餐饮                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 成都祺福斋                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 城未央                                                        </t>
+  </si>
+  <si>
+    <r>
+      <t>家用电器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>酒水饮料</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 澄玖水产有限公司                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 大吃货                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 大漠之星                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 大萱                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 砀山爱斯曼食品                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 德青源                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 德睿尔                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 蒂亚康电子科技有限公司                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 滇贝                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 滇鹏糖业                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 顶膳食品                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 东方沃得明                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 东方益航                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 东星葡萄酒                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 东阳市欧恋化妆品                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 窦老三食品                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 儿童沙子                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 梵草堂                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 方舟正德                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 菲戈                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 菲罗菈家纺                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 蜂极蜂                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 弗莱德                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 福葵                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 福祥塑化有限公司                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 福兴顺意商贸                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 富氢源                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 赣酒酒业                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 高得众智                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 高邮市新华蛋品厂                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 巩字食品                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 冠瑞金生物                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 广州乐弘                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 广州奢雪                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 贵福酒业                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 国心名茶                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 果果我亲亲                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 海正国际                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 杭州诺王食品有限公司                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 杭州翔升药业                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 好亿家                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 和增田食品                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 弘奥华泰                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 弘睿康                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 弘武食品                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 弘谊无纺布                                                    </t>
+  </si>
+  <si>
+    <r>
+      <t>宠物</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>家居清洁</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 猴加官                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 华海纳渔具                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 华夏领先                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 华夏伍洋                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 华裕食品                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 华悦红杉                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 淮安聚玩                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 环翠楼红参生物                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 汇友                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 荟智网络科技                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 惠氏蛋蛋香                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 慧宁堂生物                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 慧远信达                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 积庆寺                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 济宁亿稼宜                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 江苏阳澄半岛水产养殖                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 金昌阳澄湖大闸蟹                                              </t>
+  </si>
+  <si>
+    <t>礼券专区</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 金科绿源                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 金全聚                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 金宇达美食品                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 锦和家家居                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 京儿医药科技                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 京库商贸                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 京坤佳和                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 京明缘和                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 京仁商贸                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 经典人                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 九谷酵汁                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 君霖食品                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 卡哇伊服饰                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 凯伦诗                                                        </t>
+  </si>
+  <si>
+    <t>鞋靴箱包</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 客喜                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 昆明旭晟商贸                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 昆山国彧酒业                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 昆山乐奇儿童用品                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 昆山养味居食品                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 兰丝谜化妆品                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 蓝海愿景                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 蓝色麦田                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 乐道慈行                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 乐画                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 乐之邦                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 力润诺生物                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 丽瘦生物                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 联医美                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 良新食品                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 靓颜                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 林里香                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 临安茂林                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 凌润食品                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 刘家三七                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 龙安万家                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 隆昌鼎盛                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 洛阳青创                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 绿博士                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 绿农仁智                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 绿色长城（北京）商贸有限公司                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 绿维康                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 绿源豆类                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 麦邦                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 美生海尚                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 美之肽                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 蒙羊康盛                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 蜜品科技                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 缅华                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 明琪乐果蔬商行                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 莫凡                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 南通盛泰农业发展有限公司                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 内蒙古亿利新中农沙地农业投资股份有限公司                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 宁谷缘                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 农道                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 农夫帮                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 农家宝酒业                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 农垦黑蜂                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 诺王                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 诺亚居                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 品源酒店用品总汇                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 莆田百惠捷                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 普惠通达商贸                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 七点生活                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 七色农业                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 钱舟农产品                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 青岛尚医制药有限公司                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 青岛食为念食品有限公司                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 全福德                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 泉之道                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 融金汇鑫                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 瑞佳丽生物                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 润美特                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 三逗逗良心铺子                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 三缘汇科技                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 山物生态农场                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 膳斋食品科技发展（北京）有限公司                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 上海宝雅                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 上海标航                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 上海澄德国际                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 上海今古合                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 上海茸益                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 上海上医食品有限公司                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 尚医制药                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 邵氏兄弟健康科技（北京）股份有限公司                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 邵鑫                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 深圳钰美嘉业                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 圣洁康雅                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 圣滋源                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 盛宏时装                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 盛世同瑞                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 石头帮                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 时尚基因美肤苑                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 食兜儿                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 世纪天河                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 双强豆制品                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 水果表弟                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 斯味特                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 四方万通                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 苏州草根商务                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 苏州富利达工贸                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 苏州恒恩新能源汽车组件                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 苏州花纪                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 苏州三景刺绣                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 苏州市阳澄湖澄莲蟹业                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 苏州苏东庭生物科技                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 苏州新农堂农业科技                                            </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 苏州阳澄骄子水产                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 苏州渔夫码头水产                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 苏州远香堂                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 苏州足蟹蟹业                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 溯酒汇                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 台州贵和                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 太仓博尔特医药                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 太原市盈五福农产品有限公司                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 泰达                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 天津福百维                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 天蕴真                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 土小宝                                                        </t>
+  </si>
+  <si>
+    <r>
+      <t>粮油副食</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>艺术品</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> 拓丰食品                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 微易普睿                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 唯美农业                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 西风王水产专业合作社                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 喜乐祥和                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 鲜立方                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 鲜森绿色食品                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 贤露                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 湘沺水产有限公司                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 橡木红酒                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 橡臻国际                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 蟹业专业合作社                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 新起点教育                                                    </t>
+  </si>
+  <si>
+    <t>生活服务</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 新塘毽绳                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 新鲜一嘴                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 新怡源环保                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 鑫精艺钛                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 鑫荣农副产品                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 邢小正                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 雄腾                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 许氏大闸蟹                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 雅思丽                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 颜如科技                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 彦强生物                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 扬州懿晗                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 野象花园                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 一双网络                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 伊蕾                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 易克拉珠宝                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 益庆轩                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 逸壶名酒                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 银河谷                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 瑛冠陶瓷刀                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 优梦洁                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 优蔚雅                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 有机汇                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 鱼香聚                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 御丰园                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 元亨信                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 元欣机电                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 源丰宇杰                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 远馨芬芳                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 云旗                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 云睿鼎祥                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 长寿元素                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 招联食品                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 浙江金太阳                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 浙江绿港                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 正泰万德                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 智庭电子商务                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中洁环境                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中科江健                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中科西蒙                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中盛瑞明                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 中肽生物科技                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 仲三农业                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 众伊安                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 朱丽叶                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 诸暨双金                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 竹玛润翔                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 紫宸商贸                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 自然物语                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 自然玉满堂饰品店                                              </t>
   </si>
 </sst>
 </file>
@@ -86,9 +1416,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -110,89 +1440,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,19 +1469,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,6 +1522,66 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -268,19 +1598,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,7 +1628,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,19 +1646,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -340,6 +1712,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -347,12 +1755,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -370,85 +1772,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -477,45 +1807,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -536,6 +1827,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,16 +1882,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,10 +1912,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -594,133 +1924,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,7 +2382,7 @@
   <dimension ref="A1:B736"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1073,7 +2403,7 @@
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1081,1353 +2411,2697 @@
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
+      <c r="A13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
+      <c r="A15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
+      <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
+      <c r="A27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
+      <c r="A28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+      <c r="A29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
+      <c r="A30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
+      <c r="A32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
+      <c r="A33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="4"/>
+      <c r="A34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="4"/>
+      <c r="A35" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
+      <c r="A37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
+      <c r="A39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
+      <c r="A40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
+      <c r="A41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
+      <c r="A42" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="4"/>
+      <c r="A43" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
+      <c r="A44" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
+      <c r="A45" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
+      <c r="A46" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
+      <c r="A47" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
+      <c r="A48" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
+      <c r="A49" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
+      <c r="A50" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
+      <c r="A51" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
+      <c r="A52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
+      <c r="A53" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
+      <c r="A54" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="A55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
+      <c r="A56" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
+      <c r="A57" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
+      <c r="A58" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
+      <c r="A59" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
+      <c r="A60" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
+      <c r="A61" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
+      <c r="A62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
+      <c r="A63" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="A64" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+      <c r="A65" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
+      <c r="A66" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+      <c r="A67" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
+      <c r="A68" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+      <c r="A69" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="3"/>
-      <c r="B70" s="4"/>
+      <c r="A70" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
+      <c r="A71" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="3"/>
-      <c r="B72" s="4"/>
+      <c r="A72" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="3"/>
-      <c r="B73" s="4"/>
+      <c r="A73" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
+      <c r="A74" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
+      <c r="A75" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+      <c r="A76" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+      <c r="A77" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
+      <c r="A78" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
+      <c r="A79" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
+      <c r="A80" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
+      <c r="A81" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
+      <c r="A82" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
+      <c r="A83" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
+      <c r="A84" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
+      <c r="A85" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
+      <c r="A86" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
+      <c r="A87" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
+      <c r="A88" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
+      <c r="A89" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
+      <c r="A90" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
+      <c r="A91" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
+      <c r="A92" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
+      <c r="A93" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
+      <c r="A94" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="3"/>
-      <c r="B95" s="4"/>
+      <c r="A95" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
+      <c r="A96" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
+      <c r="A97" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
+      <c r="A98" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
+      <c r="A99" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
+      <c r="A100" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
+      <c r="A101" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
+      <c r="A102" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
+      <c r="A103" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+      <c r="A104" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
+      <c r="A105" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
+      <c r="A106" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
+      <c r="A107" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
+      <c r="A108" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
+      <c r="A109" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
+      <c r="A110" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
+      <c r="A111" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
+      <c r="A112" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
+      <c r="A113" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
+      <c r="A114" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
+      <c r="A115" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+      <c r="A116" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
+      <c r="A117" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
+      <c r="A118" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
+      <c r="A119" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
+      <c r="A120" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
+      <c r="A121" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
+      <c r="A122" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
+      <c r="A123" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+      <c r="A124" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
+      <c r="A125" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
+      <c r="A126" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="127" spans="1:2">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
+      <c r="A127" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="128" spans="1:2">
-      <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
+      <c r="A128" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
+      <c r="A129" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
+      <c r="A130" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="131" spans="1:2">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
+      <c r="A131" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
+      <c r="A132" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
+      <c r="A133" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
+      <c r="A134" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="135" spans="1:2">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
+      <c r="A135" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
+      <c r="A136" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
+      <c r="A137" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="138" spans="1:2">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
+      <c r="A138" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
+      <c r="A139" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="140" spans="1:2">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
+      <c r="A140" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="141" spans="1:2">
-      <c r="A141" s="3"/>
-      <c r="B141" s="4"/>
+      <c r="A141" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="142" spans="1:2">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
+      <c r="A142" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="143" spans="1:2">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
+      <c r="A143" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
+      <c r="A144" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="145" spans="1:2">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
+      <c r="A145" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="146" spans="1:2">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
+      <c r="A146" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
+      <c r="A147" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
+      <c r="A148" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="149" spans="1:2">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
+      <c r="A149" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="3"/>
-      <c r="B150" s="3"/>
+      <c r="A150" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="151" spans="1:2">
-      <c r="A151" s="3"/>
-      <c r="B151" s="3"/>
+      <c r="A151" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="152" spans="1:2">
-      <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
+      <c r="A152" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
+      <c r="A153" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="3"/>
-      <c r="B154" s="3"/>
+      <c r="A154" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="155" spans="1:2">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
+      <c r="A155" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="156" spans="1:2">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
+      <c r="A156" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="157" spans="1:2">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
+      <c r="A157" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="158" spans="1:2">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
+      <c r="A158" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="159" spans="1:2">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
+      <c r="A159" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="160" spans="1:2">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
+      <c r="A160" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="161" spans="1:2">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
+      <c r="A161" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
+      <c r="A162" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="163" spans="1:2">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
+      <c r="A163" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="164" spans="1:2">
-      <c r="A164" s="3"/>
-      <c r="B164" s="3"/>
+      <c r="A164" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="165" spans="1:2">
-      <c r="A165" s="3"/>
-      <c r="B165" s="3"/>
+      <c r="A165" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="166" spans="1:2">
-      <c r="A166" s="3"/>
-      <c r="B166" s="3"/>
+      <c r="A166" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="167" spans="1:2">
-      <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
+      <c r="A167" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="3"/>
-      <c r="B168" s="3"/>
+      <c r="A168" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="169" spans="1:2">
-      <c r="A169" s="3"/>
-      <c r="B169" s="3"/>
+      <c r="A169" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="170" spans="1:2">
-      <c r="A170" s="3"/>
-      <c r="B170" s="3"/>
+      <c r="A170" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="171" spans="1:2">
-      <c r="A171" s="3"/>
-      <c r="B171" s="3"/>
+      <c r="A171" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="172" spans="1:2">
-      <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
+      <c r="A172" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="173" spans="1:2">
-      <c r="A173" s="3"/>
-      <c r="B173" s="3"/>
+      <c r="A173" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="174" spans="1:2">
-      <c r="A174" s="3"/>
-      <c r="B174" s="3"/>
+      <c r="A174" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="175" spans="1:2">
-      <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
+      <c r="A175" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="176" spans="1:2">
-      <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
+      <c r="A176" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="177" spans="1:2">
-      <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
+      <c r="A177" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="178" spans="1:2">
-      <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
+      <c r="A178" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="179" spans="1:2">
-      <c r="A179" s="3"/>
-      <c r="B179" s="3"/>
+      <c r="A179" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="180" spans="1:2">
-      <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
+      <c r="A180" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="181" spans="1:2">
-      <c r="A181" s="3"/>
-      <c r="B181" s="3"/>
+      <c r="A181" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
+      <c r="A182" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="183" spans="1:2">
-      <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
+      <c r="A183" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="184" spans="1:2">
-      <c r="A184" s="3"/>
-      <c r="B184" s="3"/>
+      <c r="A184" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="185" spans="1:2">
-      <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
+      <c r="A185" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="186" spans="1:2">
-      <c r="A186" s="3"/>
-      <c r="B186" s="3"/>
+      <c r="A186" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="187" spans="1:2">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
+      <c r="A187" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="3"/>
-      <c r="B188" s="3"/>
+      <c r="A188" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="189" spans="1:2">
-      <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
+      <c r="A189" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="190" spans="1:2">
-      <c r="A190" s="3"/>
-      <c r="B190" s="3"/>
+      <c r="A190" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="191" spans="1:2">
-      <c r="A191" s="3"/>
-      <c r="B191" s="3"/>
+      <c r="A191" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="192" spans="1:2">
-      <c r="A192" s="3"/>
-      <c r="B192" s="3"/>
+      <c r="A192" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="193" spans="1:2">
-      <c r="A193" s="3"/>
-      <c r="B193" s="3"/>
+      <c r="A193" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="194" spans="1:2">
-      <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
+      <c r="A194" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="195" spans="1:2">
-      <c r="A195" s="3"/>
-      <c r="B195" s="3"/>
+      <c r="A195" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="196" spans="1:2">
-      <c r="A196" s="3"/>
-      <c r="B196" s="3"/>
+      <c r="A196" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="197" spans="1:2">
-      <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
+      <c r="A197" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="198" spans="1:2">
-      <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
+      <c r="A198" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="199" spans="1:2">
-      <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
+      <c r="A199" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="200" spans="1:2">
-      <c r="A200" s="3"/>
-      <c r="B200" s="3"/>
+      <c r="A200" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="201" spans="1:2">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
+      <c r="A201" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="202" spans="1:2">
-      <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
+      <c r="A202" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
+      <c r="A203" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="204" spans="1:2">
-      <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
+      <c r="A204" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="205" spans="1:2">
-      <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
+      <c r="A205" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="206" spans="1:2">
-      <c r="A206" s="3"/>
-      <c r="B206" s="3"/>
+      <c r="A206" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="207" spans="1:2">
-      <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
+      <c r="A207" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="208" spans="1:2">
-      <c r="A208" s="3"/>
-      <c r="B208" s="3"/>
+      <c r="A208" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
+      <c r="A209" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="210" spans="1:2">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
+      <c r="A210" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="211" spans="1:2">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
+      <c r="A211" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="212" spans="1:2">
-      <c r="A212" s="3"/>
-      <c r="B212" s="3"/>
+      <c r="A212" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="213" spans="1:2">
-      <c r="A213" s="3"/>
-      <c r="B213" s="3"/>
+      <c r="A213" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="214" spans="1:2">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
+      <c r="A214" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="215" spans="1:2">
-      <c r="A215" s="3"/>
-      <c r="B215" s="3"/>
+      <c r="A215" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="216" spans="1:2">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
+      <c r="A216" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="217" spans="1:2">
-      <c r="A217" s="3"/>
-      <c r="B217" s="3"/>
+      <c r="A217" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="218" spans="1:2">
-      <c r="A218" s="3"/>
-      <c r="B218" s="3"/>
+      <c r="A218" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="219" spans="1:2">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3"/>
+      <c r="A219" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="220" spans="1:2">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
+      <c r="A220" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="221" spans="1:2">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
+      <c r="A221" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="222" spans="1:2">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
+      <c r="A222" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="3"/>
-      <c r="B223" s="3"/>
+      <c r="A223" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="224" spans="1:2">
-      <c r="A224" s="3"/>
-      <c r="B224" s="3"/>
+      <c r="A224" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="225" spans="1:2">
-      <c r="A225" s="3"/>
-      <c r="B225" s="3"/>
+      <c r="A225" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="226" spans="1:2">
-      <c r="A226" s="3"/>
-      <c r="B226" s="3"/>
+      <c r="A226" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="227" spans="1:2">
-      <c r="A227" s="3"/>
-      <c r="B227" s="3"/>
+      <c r="A227" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="228" spans="1:2">
-      <c r="A228" s="3"/>
-      <c r="B228" s="3"/>
+      <c r="A228" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="3"/>
-      <c r="B229" s="3"/>
+      <c r="A229" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="230" spans="1:2">
-      <c r="A230" s="3"/>
-      <c r="B230" s="3"/>
+      <c r="A230" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="231" spans="1:2">
-      <c r="A231" s="3"/>
-      <c r="B231" s="3"/>
+      <c r="A231" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="232" spans="1:2">
-      <c r="A232" s="3"/>
-      <c r="B232" s="3"/>
+      <c r="A232" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="233" spans="1:2">
-      <c r="A233" s="3"/>
-      <c r="B233" s="3"/>
+      <c r="A233" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="234" spans="1:2">
-      <c r="A234" s="3"/>
-      <c r="B234" s="3"/>
+      <c r="A234" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="235" spans="1:2">
-      <c r="A235" s="3"/>
-      <c r="B235" s="3"/>
+      <c r="A235" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="236" spans="1:2">
-      <c r="A236" s="3"/>
-      <c r="B236" s="3"/>
+      <c r="A236" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="237" spans="1:2">
-      <c r="A237" s="3"/>
-      <c r="B237" s="3"/>
+      <c r="A237" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="238" spans="1:2">
-      <c r="A238" s="3"/>
-      <c r="B238" s="3"/>
+      <c r="A238" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="239" spans="1:2">
-      <c r="A239" s="3"/>
-      <c r="B239" s="3"/>
+      <c r="A239" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="240" spans="1:2">
-      <c r="A240" s="3"/>
-      <c r="B240" s="3"/>
+      <c r="A240" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="241" spans="1:2">
-      <c r="A241" s="3"/>
-      <c r="B241" s="3"/>
+      <c r="A241" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="242" spans="1:2">
-      <c r="A242" s="3"/>
-      <c r="B242" s="3"/>
+      <c r="A242" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="243" spans="1:2">
-      <c r="A243" s="3"/>
-      <c r="B243" s="3"/>
+      <c r="A243" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="244" spans="1:2">
-      <c r="A244" s="3"/>
-      <c r="B244" s="3"/>
+      <c r="A244" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="245" spans="1:2">
-      <c r="A245" s="3"/>
-      <c r="B245" s="3"/>
+      <c r="A245" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="246" spans="1:2">
-      <c r="A246" s="3"/>
-      <c r="B246" s="3"/>
+      <c r="A246" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="247" spans="1:2">
-      <c r="A247" s="3"/>
-      <c r="B247" s="3"/>
+      <c r="A247" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="248" spans="1:2">
-      <c r="A248" s="3"/>
-      <c r="B248" s="3"/>
+      <c r="A248" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="249" spans="1:2">
-      <c r="A249" s="3"/>
-      <c r="B249" s="3"/>
+      <c r="A249" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="250" spans="1:2">
-      <c r="A250" s="3"/>
-      <c r="B250" s="3"/>
+      <c r="A250" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="251" spans="1:2">
-      <c r="A251" s="3"/>
-      <c r="B251" s="3"/>
+      <c r="A251" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="252" spans="1:2">
-      <c r="A252" s="3"/>
-      <c r="B252" s="3"/>
+      <c r="A252" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="253" spans="1:2">
-      <c r="A253" s="3"/>
-      <c r="B253" s="3"/>
+      <c r="A253" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="254" spans="1:2">
-      <c r="A254" s="3"/>
-      <c r="B254" s="3"/>
+      <c r="A254" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="255" spans="1:2">
-      <c r="A255" s="3"/>
-      <c r="B255" s="3"/>
+      <c r="A255" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="256" spans="1:2">
-      <c r="A256" s="3"/>
-      <c r="B256" s="3"/>
+      <c r="A256" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="257" spans="1:2">
-      <c r="A257" s="3"/>
-      <c r="B257" s="3"/>
+      <c r="A257" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="258" spans="1:2">
-      <c r="A258" s="3"/>
-      <c r="B258" s="3"/>
+      <c r="A258" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="259" spans="1:2">
-      <c r="A259" s="3"/>
-      <c r="B259" s="3"/>
+      <c r="A259" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="260" spans="1:2">
-      <c r="A260" s="3"/>
-      <c r="B260" s="3"/>
+      <c r="A260" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="261" spans="1:2">
-      <c r="A261" s="3"/>
-      <c r="B261" s="3"/>
+      <c r="A261" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="262" spans="1:2">
-      <c r="A262" s="3"/>
-      <c r="B262" s="3"/>
+      <c r="A262" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="263" spans="1:2">
-      <c r="A263" s="3"/>
-      <c r="B263" s="3"/>
+      <c r="A263" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="264" spans="1:2">
-      <c r="A264" s="3"/>
-      <c r="B264" s="3"/>
+      <c r="A264" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="265" spans="1:2">
-      <c r="A265" s="3"/>
-      <c r="B265" s="3"/>
+      <c r="A265" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="266" spans="1:2">
-      <c r="A266" s="3"/>
-      <c r="B266" s="3"/>
+      <c r="A266" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="267" spans="1:2">
-      <c r="A267" s="3"/>
-      <c r="B267" s="3"/>
+      <c r="A267" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="268" spans="1:2">
-      <c r="A268" s="3"/>
-      <c r="B268" s="3"/>
+      <c r="A268" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="269" spans="1:2">
-      <c r="A269" s="3"/>
-      <c r="B269" s="3"/>
+      <c r="A269" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="270" spans="1:2">
-      <c r="A270" s="3"/>
-      <c r="B270" s="3"/>
+      <c r="A270" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="271" spans="1:2">
-      <c r="A271" s="3"/>
-      <c r="B271" s="3"/>
+      <c r="A271" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="272" spans="1:2">
-      <c r="A272" s="3"/>
-      <c r="B272" s="3"/>
+      <c r="A272" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="3"/>
-      <c r="B273" s="3"/>
+      <c r="A273" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="274" spans="1:2">
-      <c r="A274" s="3"/>
-      <c r="B274" s="3"/>
+      <c r="A274" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="275" spans="1:2">
-      <c r="A275" s="3"/>
-      <c r="B275" s="3"/>
+      <c r="A275" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="3"/>
-      <c r="B276" s="4"/>
+      <c r="A276" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="3"/>
-      <c r="B277" s="3"/>
+      <c r="A277" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="278" spans="1:2">
-      <c r="A278" s="3"/>
-      <c r="B278" s="3"/>
+      <c r="A278" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="279" spans="1:2">
-      <c r="A279" s="3"/>
-      <c r="B279" s="3"/>
+      <c r="A279" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="3"/>
-      <c r="B280" s="3"/>
+      <c r="A280" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="281" spans="1:2">
-      <c r="A281" s="3"/>
-      <c r="B281" s="3"/>
+      <c r="A281" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="282" spans="1:2">
-      <c r="A282" s="3"/>
-      <c r="B282" s="3"/>
+      <c r="A282" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="3"/>
-      <c r="B283" s="3"/>
+      <c r="A283" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="284" spans="1:2">
-      <c r="A284" s="3"/>
-      <c r="B284" s="3"/>
+      <c r="A284" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="285" spans="1:2">
-      <c r="A285" s="3"/>
-      <c r="B285" s="3"/>
+      <c r="A285" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="286" spans="1:2">
-      <c r="A286" s="3"/>
-      <c r="B286" s="3"/>
+      <c r="A286" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="287" spans="1:2">
-      <c r="A287" s="3"/>
-      <c r="B287" s="3"/>
+      <c r="A287" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="288" spans="1:2">
-      <c r="A288" s="3"/>
-      <c r="B288" s="3"/>
+      <c r="A288" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="3"/>
-      <c r="B289" s="3"/>
+      <c r="A289" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="290" spans="1:2">
-      <c r="A290" s="3"/>
-      <c r="B290" s="3"/>
+      <c r="A290" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="291" spans="1:2">
-      <c r="A291" s="3"/>
-      <c r="B291" s="3"/>
+      <c r="A291" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="292" spans="1:2">
-      <c r="A292" s="3"/>
-      <c r="B292" s="3"/>
+      <c r="A292" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="293" spans="1:2">
-      <c r="A293" s="3"/>
-      <c r="B293" s="3"/>
+      <c r="A293" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="3"/>
-      <c r="B294" s="3"/>
+      <c r="A294" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="295" spans="1:2">
-      <c r="A295" s="3"/>
-      <c r="B295" s="3"/>
+      <c r="A295" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="296" spans="1:2">
-      <c r="A296" s="3"/>
-      <c r="B296" s="3"/>
+      <c r="A296" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="297" spans="1:2">
-      <c r="A297" s="3"/>
-      <c r="B297" s="3"/>
+      <c r="A297" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="298" spans="1:2">
-      <c r="A298" s="3"/>
-      <c r="B298" s="3"/>
+      <c r="A298" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="299" spans="1:2">
-      <c r="A299" s="3"/>
-      <c r="B299" s="3"/>
+      <c r="A299" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="3"/>
-      <c r="B300" s="3"/>
+      <c r="A300" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="301" spans="1:2">
-      <c r="A301" s="3"/>
-      <c r="B301" s="3"/>
+      <c r="A301" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="302" spans="1:2">
-      <c r="A302" s="3"/>
-      <c r="B302" s="3"/>
+      <c r="A302" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="303" spans="1:2">
-      <c r="A303" s="3"/>
-      <c r="B303" s="3"/>
+      <c r="A303" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="304" spans="1:2">
-      <c r="A304" s="3"/>
-      <c r="B304" s="3"/>
+      <c r="A304" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="3"/>
-      <c r="B305" s="3"/>
+      <c r="A305" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="306" spans="1:2">
-      <c r="A306" s="3"/>
-      <c r="B306" s="3"/>
+      <c r="A306" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="307" spans="1:2">
-      <c r="A307" s="3"/>
-      <c r="B307" s="3"/>
+      <c r="A307" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="308" spans="1:2">
-      <c r="A308" s="3"/>
-      <c r="B308" s="3"/>
+      <c r="A308" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="309" spans="1:2">
-      <c r="A309" s="3"/>
-      <c r="B309" s="3"/>
+      <c r="A309" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="3"/>
-      <c r="B310" s="3"/>
+      <c r="A310" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="311" spans="1:2">
-      <c r="A311" s="3"/>
-      <c r="B311" s="3"/>
+      <c r="A311" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="3"/>
-      <c r="B312" s="3"/>
+      <c r="A312" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="313" spans="1:2">
-      <c r="A313" s="3"/>
-      <c r="B313" s="3"/>
+      <c r="A313" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="314" spans="1:2">
-      <c r="A314" s="3"/>
-      <c r="B314" s="3"/>
+      <c r="A314" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="315" spans="1:2">
-      <c r="A315" s="3"/>
-      <c r="B315" s="3"/>
+      <c r="A315" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="3"/>
-      <c r="B316" s="3"/>
+      <c r="A316" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="317" spans="1:2">
-      <c r="A317" s="3"/>
-      <c r="B317" s="3"/>
+      <c r="A317" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="3"/>
-      <c r="B318" s="3"/>
+      <c r="A318" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="3"/>
-      <c r="B319" s="3"/>
+      <c r="A319" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="3"/>
-      <c r="B320" s="3"/>
+      <c r="A320" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="3"/>
-      <c r="B321" s="3"/>
+      <c r="A321" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="3"/>
-      <c r="B322" s="3"/>
+      <c r="A322" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="3"/>
-      <c r="B323" s="3"/>
+      <c r="A323" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="324" spans="1:2">
-      <c r="A324" s="3"/>
-      <c r="B324" s="3"/>
+      <c r="A324" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="325" spans="1:2">
-      <c r="A325" s="3"/>
-      <c r="B325" s="3"/>
+      <c r="A325" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="3"/>
-      <c r="B326" s="3"/>
+      <c r="A326" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="327" spans="1:2">
-      <c r="A327" s="3"/>
-      <c r="B327" s="3"/>
+      <c r="A327" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="328" spans="1:2">
-      <c r="A328" s="3"/>
-      <c r="B328" s="3"/>
+      <c r="A328" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="329" spans="1:2">
-      <c r="A329" s="3"/>
-      <c r="B329" s="3"/>
+      <c r="A329" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="3"/>
-      <c r="B330" s="3"/>
+      <c r="A330" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="3"/>
-      <c r="B331" s="3"/>
+      <c r="A331" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="332" spans="1:2">
-      <c r="A332" s="3"/>
-      <c r="B332" s="3"/>
+      <c r="A332" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="333" spans="1:2">
-      <c r="A333" s="3"/>
-      <c r="B333" s="3"/>
+      <c r="A333" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="334" spans="1:2">
-      <c r="A334" s="3"/>
-      <c r="B334" s="3"/>
+      <c r="A334" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="335" spans="1:2">
-      <c r="A335" s="3"/>
-      <c r="B335" s="3"/>
+      <c r="A335" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="336" spans="1:2">
-      <c r="A336" s="3"/>
-      <c r="B336" s="3"/>
+      <c r="A336" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="337" spans="1:2">
-      <c r="A337" s="3"/>
-      <c r="B337" s="3"/>
+      <c r="A337" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="338" spans="1:2">
-      <c r="A338" s="3"/>
-      <c r="B338" s="3"/>
+      <c r="A338" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="339" spans="1:2">
-      <c r="A339" s="3"/>
-      <c r="B339" s="3"/>
+      <c r="A339" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340"/>
